--- a/TW/wc_template_TW_v3.xlsx
+++ b/TW/wc_template_TW_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\TW\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395976F-6059-4ED5-B993-BF7D2716BF67}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98BC19-7D80-4E46-8DFD-C196051C06A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="370" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -858,6 +858,9 @@
     <xf numFmtId="3" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -868,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:BD78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -1547,7 +1547,7 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="68" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="91"/>
@@ -1607,7 +1607,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN4" s="92" t="str">
-        <f>IFERROR(AR4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AN4:AN24" si="3">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="68" t="e">
@@ -1643,11 +1643,11 @@
         <v>n.a.</v>
       </c>
       <c r="AW4" s="71" t="str">
-        <f t="shared" ref="AW4:AW14" si="3">IFERROR(-AS4+AV4, "n.a.")</f>
+        <f t="shared" ref="AW4:AW14" si="4">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="92" t="str">
-        <f>IFERROR(BB4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AX4:AX24" si="5">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="68" t="e">
@@ -1702,7 +1702,7 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="68" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="91"/>
@@ -1718,7 +1718,7 @@
       <c r="AA5" s="91"/>
       <c r="AB5" s="91"/>
       <c r="AC5" s="69" t="str">
-        <f t="shared" ref="AC5:AC24" si="4">IFERROR(AI5-AS5, "")</f>
+        <f t="shared" ref="AC5:AC24" si="6">IFERROR(AI5-AS5, "")</f>
         <v/>
       </c>
       <c r="AD5" s="76" t="str">
@@ -1738,7 +1738,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH5" s="112" t="str">
-        <f t="shared" ref="AH5:AH24" si="5">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
+        <f t="shared" ref="AH5:AH24" si="7">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI5" s="119" t="str">
@@ -1746,15 +1746,15 @@
         <v/>
       </c>
       <c r="AJ5" s="70" t="str">
-        <f t="shared" ref="AJ5:AJ24" si="6">IFERROR(AO5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AJ5:AJ24" si="8">IFERROR(AO5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AK5" s="73" t="str">
-        <f t="shared" ref="AK5:AK24" si="7">IFERROR(AP5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AK5:AK24" si="9">IFERROR(AP5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AL5" s="70" t="str">
-        <f t="shared" ref="AL5:AL24" si="8">IFERROR(AQ5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AL5:AL24" si="10">IFERROR(AQ5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AM5" s="77" t="str">
@@ -1762,7 +1762,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN5" s="92" t="str">
-        <f>IFERROR(AR5/M5*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO5" s="80" t="e">
@@ -1786,23 +1786,23 @@
         <v/>
       </c>
       <c r="AT5" s="70" t="str">
-        <f t="shared" ref="AT5:AT24" si="9">IFERROR(AY5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AT5:AT24" si="11">IFERROR(AY5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AU5" s="70" t="str">
-        <f t="shared" ref="AU5:AU24" si="10">IFERROR(AZ5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AU5:AU24" si="12">IFERROR(AZ5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AV5" s="66" t="str">
-        <f t="shared" ref="AV5:AV24" si="11">IFERROR(BA5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AV5:AV24" si="13">IFERROR(BA5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AW5" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX5" s="92" t="str">
-        <f>IFERROR(BB5/M5*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY5" s="80" t="e">
@@ -1857,7 +1857,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="68" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="91"/>
@@ -1873,7 +1873,7 @@
       <c r="AA6" s="91"/>
       <c r="AB6" s="91"/>
       <c r="AC6" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD6" s="76" t="str">
@@ -1893,7 +1893,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH6" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI6" s="119" t="str">
@@ -1901,15 +1901,15 @@
         <v/>
       </c>
       <c r="AJ6" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK6" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL6" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM6" s="77" t="str">
@@ -1917,7 +1917,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN6" s="92" t="str">
-        <f>IFERROR(AR6/M6*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO6" s="80" t="e">
@@ -1941,23 +1941,23 @@
         <v/>
       </c>
       <c r="AT6" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU6" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV6" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU6" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV6" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW6" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX6" s="92" t="str">
-        <f>IFERROR(BB6/M6*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY6" s="80" t="e">
@@ -2012,7 +2012,7 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="68" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="91"/>
@@ -2028,7 +2028,7 @@
       <c r="AA7" s="91"/>
       <c r="AB7" s="91"/>
       <c r="AC7" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD7" s="76" t="str">
@@ -2048,7 +2048,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH7" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI7" s="119" t="str">
@@ -2056,15 +2056,15 @@
         <v/>
       </c>
       <c r="AJ7" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK7" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL7" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM7" s="77" t="str">
@@ -2072,7 +2072,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN7" s="92" t="str">
-        <f>IFERROR(AR7/M7*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO7" s="80" t="e">
@@ -2096,23 +2096,23 @@
         <v/>
       </c>
       <c r="AT7" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU7" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV7" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU7" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV7" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW7" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX7" s="92" t="str">
-        <f>IFERROR(BB7/M7*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY7" s="80" t="e">
@@ -2167,7 +2167,7 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="68" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="91"/>
@@ -2183,7 +2183,7 @@
       <c r="AA8" s="91"/>
       <c r="AB8" s="91"/>
       <c r="AC8" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD8" s="76" t="str">
@@ -2203,7 +2203,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH8" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI8" s="119" t="str">
@@ -2211,15 +2211,15 @@
         <v/>
       </c>
       <c r="AJ8" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK8" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL8" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM8" s="77" t="str">
@@ -2227,7 +2227,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN8" s="92" t="str">
-        <f>IFERROR(AR8/M8*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO8" s="80" t="e">
@@ -2251,23 +2251,23 @@
         <v/>
       </c>
       <c r="AT8" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU8" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV8" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU8" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV8" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW8" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX8" s="92" t="str">
-        <f>IFERROR(BB8/M8*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY8" s="80" t="e">
@@ -2322,7 +2322,7 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="68" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="91"/>
@@ -2338,7 +2338,7 @@
       <c r="AA9" s="91"/>
       <c r="AB9" s="91"/>
       <c r="AC9" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD9" s="76" t="str">
@@ -2358,7 +2358,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH9" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI9" s="119" t="str">
@@ -2366,15 +2366,15 @@
         <v/>
       </c>
       <c r="AJ9" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK9" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL9" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM9" s="77" t="str">
@@ -2382,7 +2382,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN9" s="92" t="str">
-        <f>IFERROR(AR9/M9*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO9" s="80" t="e">
@@ -2406,23 +2406,23 @@
         <v/>
       </c>
       <c r="AT9" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU9" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV9" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU9" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV9" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW9" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX9" s="92" t="str">
-        <f>IFERROR(BB9/M9*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY9" s="80" t="e">
@@ -2477,7 +2477,7 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="68" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="91"/>
@@ -2493,7 +2493,7 @@
       <c r="AA10" s="91"/>
       <c r="AB10" s="91"/>
       <c r="AC10" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD10" s="76" t="str">
@@ -2513,7 +2513,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH10" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI10" s="119" t="str">
@@ -2521,15 +2521,15 @@
         <v/>
       </c>
       <c r="AJ10" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK10" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL10" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM10" s="77" t="str">
@@ -2537,7 +2537,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN10" s="92" t="str">
-        <f>IFERROR(AR10/M10*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO10" s="80" t="e">
@@ -2561,23 +2561,23 @@
         <v/>
       </c>
       <c r="AT10" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU10" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV10" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU10" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV10" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW10" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX10" s="92" t="str">
-        <f>IFERROR(BB10/M10*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY10" s="80" t="e">
@@ -2632,7 +2632,7 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="68" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="91"/>
@@ -2648,7 +2648,7 @@
       <c r="AA11" s="91"/>
       <c r="AB11" s="91"/>
       <c r="AC11" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD11" s="76" t="str">
@@ -2668,7 +2668,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH11" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI11" s="119" t="str">
@@ -2676,15 +2676,15 @@
         <v/>
       </c>
       <c r="AJ11" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK11" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL11" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM11" s="77" t="str">
@@ -2692,7 +2692,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN11" s="92" t="str">
-        <f>IFERROR(AR11/M11*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO11" s="80" t="e">
@@ -2716,23 +2716,23 @@
         <v/>
       </c>
       <c r="AT11" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU11" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV11" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU11" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV11" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW11" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX11" s="92" t="str">
-        <f>IFERROR(BB11/M11*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY11" s="80" t="e">
@@ -2787,7 +2787,7 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="68" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="91"/>
@@ -2803,7 +2803,7 @@
       <c r="AA12" s="91"/>
       <c r="AB12" s="91"/>
       <c r="AC12" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD12" s="76" t="str">
@@ -2823,7 +2823,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH12" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI12" s="119" t="str">
@@ -2831,15 +2831,15 @@
         <v/>
       </c>
       <c r="AJ12" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK12" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL12" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM12" s="77" t="str">
@@ -2847,7 +2847,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN12" s="92" t="str">
-        <f>IFERROR(AR12/M12*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO12" s="80" t="e">
@@ -2871,23 +2871,23 @@
         <v/>
       </c>
       <c r="AT12" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU12" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV12" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU12" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV12" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW12" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX12" s="92" t="str">
-        <f>IFERROR(BB12/M12*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY12" s="80" t="e">
@@ -2942,7 +2942,7 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="68" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="91"/>
@@ -2958,7 +2958,7 @@
       <c r="AA13" s="91"/>
       <c r="AB13" s="91"/>
       <c r="AC13" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD13" s="76" t="str">
@@ -2978,7 +2978,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH13" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI13" s="119" t="str">
@@ -2986,15 +2986,15 @@
         <v/>
       </c>
       <c r="AJ13" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK13" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL13" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM13" s="77" t="str">
@@ -3002,7 +3002,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN13" s="92" t="str">
-        <f>IFERROR(AR13/M13*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO13" s="80" t="e">
@@ -3026,23 +3026,23 @@
         <v/>
       </c>
       <c r="AT13" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU13" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV13" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU13" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV13" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW13" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX13" s="92" t="str">
-        <f>IFERROR(BB13/M13*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY13" s="80" t="e">
@@ -3097,7 +3097,7 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="68" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="91"/>
@@ -3113,7 +3113,7 @@
       <c r="AA14" s="91"/>
       <c r="AB14" s="91"/>
       <c r="AC14" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD14" s="76" t="str">
@@ -3133,7 +3133,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH14" s="112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI14" s="119" t="str">
@@ -3141,15 +3141,15 @@
         <v/>
       </c>
       <c r="AJ14" s="70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK14" s="73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL14" s="70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM14" s="77" t="str">
@@ -3157,7 +3157,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN14" s="92" t="str">
-        <f>IFERROR(AR14/M14*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO14" s="80" t="e">
@@ -3181,23 +3181,23 @@
         <v/>
       </c>
       <c r="AT14" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU14" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV14" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU14" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV14" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW14" s="77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX14" s="92" t="str">
-        <f>IFERROR(BB14/M14*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY14" s="80" t="e">
@@ -3252,7 +3252,7 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="68" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="91"/>
@@ -3268,27 +3268,27 @@
       <c r="AA15" s="91"/>
       <c r="AB15" s="91"/>
       <c r="AC15" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD15" s="76" t="str">
-        <f t="shared" ref="AD15:AD23" si="12">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
+        <f t="shared" ref="AD15:AD23" si="14">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AE15" s="76" t="str">
-        <f t="shared" ref="AE15:AE23" si="13">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
+        <f t="shared" ref="AE15:AE23" si="15">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AF15" s="93" t="str">
-        <f t="shared" ref="AF15:AF23" si="14">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
+        <f t="shared" ref="AF15:AF23" si="16">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AG15" s="78" t="str">
-        <f t="shared" ref="AG15:AG23" si="15">IFERROR(AC15-AF15, "n.a.")</f>
+        <f t="shared" ref="AG15:AG23" si="17">IFERROR(AC15-AF15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AH15" s="112" t="str">
-        <f t="shared" ref="AH15:AH23" si="16">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
+        <f t="shared" ref="AH15:AH23" si="18">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI15" s="119" t="str">
@@ -3296,23 +3296,23 @@
         <v/>
       </c>
       <c r="AJ15" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK15" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL15" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK15" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL15" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM15" s="77" t="str">
-        <f t="shared" ref="AM15:AM23" si="17">IFERROR(-AL15+AI15,"n.a.")</f>
+        <f t="shared" ref="AM15:AM23" si="19">IFERROR(-AL15+AI15,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN15" s="92" t="str">
-        <f>IFERROR(AR15/M15*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO15" s="80" t="e">
@@ -3336,23 +3336,23 @@
         <v/>
       </c>
       <c r="AT15" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU15" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV15" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU15" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV15" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW15" s="77" t="str">
-        <f t="shared" ref="AW15:AW23" si="18">IFERROR(-AS15+AV15, "n.a.")</f>
+        <f t="shared" ref="AW15:AW23" si="20">IFERROR(-AS15+AV15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX15" s="92" t="str">
-        <f>IFERROR(BB15/M15*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY15" s="80" t="e">
@@ -3407,7 +3407,7 @@
         <v>#N/A</v>
       </c>
       <c r="P16" s="68" t="e">
-        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="91"/>
@@ -3423,27 +3423,27 @@
       <c r="AA16" s="91"/>
       <c r="AB16" s="91"/>
       <c r="AC16" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE16" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF16" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG16" s="78" t="str">
+      <c r="AE16" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF16" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG16" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH16" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI16" s="119" t="str">
@@ -3451,23 +3451,23 @@
         <v/>
       </c>
       <c r="AJ16" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK16" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL16" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK16" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM16" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN16" s="92" t="str">
-        <f>IFERROR(AR16/M16*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO16" s="80" t="e">
@@ -3491,23 +3491,23 @@
         <v/>
       </c>
       <c r="AT16" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU16" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV16" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV16" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW16" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX16" s="92" t="str">
-        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY16" s="80" t="e">
@@ -3562,7 +3562,7 @@
         <v>#N/A</v>
       </c>
       <c r="P17" s="68" t="e">
-        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="91"/>
@@ -3578,27 +3578,27 @@
       <c r="AA17" s="91"/>
       <c r="AB17" s="91"/>
       <c r="AC17" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD17" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE17" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF17" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG17" s="78" t="str">
+      <c r="AE17" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF17" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG17" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH17" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI17" s="119" t="str">
@@ -3606,23 +3606,23 @@
         <v/>
       </c>
       <c r="AJ17" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK17" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL17" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK17" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL17" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM17" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN17" s="92" t="str">
-        <f>IFERROR(AR17/M17*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO17" s="80" t="e">
@@ -3646,23 +3646,23 @@
         <v/>
       </c>
       <c r="AT17" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU17" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV17" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU17" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV17" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW17" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX17" s="92" t="str">
-        <f>IFERROR(BB17/M17*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY17" s="80" t="e">
@@ -3717,7 +3717,7 @@
         <v>#N/A</v>
       </c>
       <c r="P18" s="68" t="e">
-        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="91"/>
@@ -3733,27 +3733,27 @@
       <c r="AA18" s="91"/>
       <c r="AB18" s="91"/>
       <c r="AC18" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD18" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE18" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF18" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG18" s="78" t="str">
+      <c r="AE18" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF18" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG18" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH18" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI18" s="119" t="str">
@@ -3761,23 +3761,23 @@
         <v/>
       </c>
       <c r="AJ18" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK18" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL18" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK18" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL18" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM18" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN18" s="92" t="str">
-        <f>IFERROR(AR18/M18*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO18" s="80" t="e">
@@ -3801,23 +3801,23 @@
         <v/>
       </c>
       <c r="AT18" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU18" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV18" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU18" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV18" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW18" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX18" s="92" t="str">
-        <f>IFERROR(BB18/M18*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY18" s="80" t="e">
@@ -3872,7 +3872,7 @@
         <v>#N/A</v>
       </c>
       <c r="P19" s="68" t="e">
-        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="91"/>
@@ -3888,27 +3888,27 @@
       <c r="AA19" s="91"/>
       <c r="AB19" s="91"/>
       <c r="AC19" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD19" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE19" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF19" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG19" s="78" t="str">
+      <c r="AE19" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF19" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG19" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH19" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI19" s="119" t="str">
@@ -3916,23 +3916,23 @@
         <v/>
       </c>
       <c r="AJ19" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK19" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL19" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK19" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL19" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM19" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN19" s="92" t="str">
-        <f>IFERROR(AR19/M19*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO19" s="80" t="e">
@@ -3956,23 +3956,23 @@
         <v/>
       </c>
       <c r="AT19" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU19" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV19" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU19" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV19" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW19" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX19" s="92" t="str">
-        <f>IFERROR(BB19/M19*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY19" s="80" t="e">
@@ -4027,7 +4027,7 @@
         <v>#N/A</v>
       </c>
       <c r="P20" s="68" t="e">
-        <f>VLOOKUP($B20,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="91"/>
@@ -4043,27 +4043,27 @@
       <c r="AA20" s="91"/>
       <c r="AB20" s="91"/>
       <c r="AC20" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD20" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE20" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF20" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG20" s="78" t="str">
+      <c r="AE20" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF20" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG20" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH20" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI20" s="119" t="str">
@@ -4071,23 +4071,23 @@
         <v/>
       </c>
       <c r="AJ20" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK20" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL20" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK20" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL20" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM20" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN20" s="92" t="str">
-        <f>IFERROR(AR20/M20*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO20" s="80" t="e">
@@ -4111,23 +4111,23 @@
         <v/>
       </c>
       <c r="AT20" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU20" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV20" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU20" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV20" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW20" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX20" s="92" t="str">
-        <f>IFERROR(BB20/M20*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY20" s="80" t="e">
@@ -4182,7 +4182,7 @@
         <v>#N/A</v>
       </c>
       <c r="P21" s="68" t="e">
-        <f>VLOOKUP($B21,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q21" s="91"/>
@@ -4198,27 +4198,27 @@
       <c r="AA21" s="91"/>
       <c r="AB21" s="91"/>
       <c r="AC21" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD21" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE21" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF21" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG21" s="78" t="str">
+      <c r="AE21" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF21" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG21" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH21" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI21" s="119" t="str">
@@ -4226,23 +4226,23 @@
         <v/>
       </c>
       <c r="AJ21" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK21" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL21" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK21" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL21" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM21" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN21" s="92" t="str">
-        <f>IFERROR(AR21/M21*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO21" s="80" t="e">
@@ -4266,23 +4266,23 @@
         <v/>
       </c>
       <c r="AT21" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU21" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV21" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU21" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV21" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW21" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX21" s="92" t="str">
-        <f>IFERROR(BB21/M21*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY21" s="80" t="e">
@@ -4337,7 +4337,7 @@
         <v>#N/A</v>
       </c>
       <c r="P22" s="68" t="e">
-        <f>VLOOKUP($B22,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q22" s="91"/>
@@ -4353,27 +4353,27 @@
       <c r="AA22" s="91"/>
       <c r="AB22" s="91"/>
       <c r="AC22" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD22" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE22" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF22" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG22" s="78" t="str">
+      <c r="AE22" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF22" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG22" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH22" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI22" s="119" t="str">
@@ -4381,23 +4381,23 @@
         <v/>
       </c>
       <c r="AJ22" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK22" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL22" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK22" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL22" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM22" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN22" s="92" t="str">
-        <f>IFERROR(AR22/M22*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO22" s="80" t="e">
@@ -4421,23 +4421,23 @@
         <v/>
       </c>
       <c r="AT22" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU22" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV22" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU22" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV22" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW22" s="77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX22" s="92" t="str">
-        <f>IFERROR(BB22/M22*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY22" s="80" t="e">
@@ -4492,7 +4492,7 @@
         <v>#N/A</v>
       </c>
       <c r="P23" s="68" t="e">
-        <f>VLOOKUP($B23,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q23" s="91"/>
@@ -4508,27 +4508,27 @@
       <c r="AA23" s="91"/>
       <c r="AB23" s="91"/>
       <c r="AC23" s="69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD23" s="76" t="str">
-        <f t="shared" si="12"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AE23" s="76" t="str">
-        <f t="shared" si="13"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AF23" s="93" t="str">
         <f t="shared" si="14"/>
         <v>n.a.</v>
       </c>
-      <c r="AG23" s="78" t="str">
+      <c r="AE23" s="76" t="str">
         <f t="shared" si="15"/>
         <v>n.a.</v>
       </c>
+      <c r="AF23" s="93" t="str">
+        <f t="shared" si="16"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AG23" s="78" t="str">
+        <f t="shared" si="17"/>
+        <v>n.a.</v>
+      </c>
       <c r="AH23" s="112" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>n.a.</v>
       </c>
       <c r="AI23" s="119" t="str">
@@ -4536,23 +4536,23 @@
         <v/>
       </c>
       <c r="AJ23" s="70" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AK23" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL23" s="70" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
+      <c r="AK23" s="73" t="str">
+        <f t="shared" si="9"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL23" s="70" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
       <c r="AM23" s="77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>n.a.</v>
       </c>
       <c r="AN23" s="92" t="str">
-        <f>IFERROR(AR23/M23*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO23" s="80" t="e">
@@ -4576,23 +4576,23 @@
         <v/>
       </c>
       <c r="AT23" s="70" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU23" s="70" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV23" s="66" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU23" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV23" s="66" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW23" s="71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX23" s="92" t="str">
-        <f>IFERROR(BB23/M23*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY23" s="80" t="e">
@@ -4612,7 +4612,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:54" s="139" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" s="134" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="74"/>
       <c r="B24" s="83"/>
       <c r="C24" s="86"/>
@@ -4647,7 +4647,7 @@
         <v>#N/A</v>
       </c>
       <c r="P24" s="80" t="e">
-        <f>VLOOKUP($B24,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="105"/>
@@ -4663,7 +4663,7 @@
       <c r="AA24" s="105"/>
       <c r="AB24" s="105"/>
       <c r="AC24" s="75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD24" s="76" t="str">
@@ -4683,7 +4683,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH24" s="113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI24" s="119" t="str">
@@ -4691,15 +4691,15 @@
         <v/>
       </c>
       <c r="AJ24" s="76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK24" s="79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL24" s="76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM24" s="77" t="str">
@@ -4707,7 +4707,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN24" s="93" t="str">
-        <f>IFERROR(AR24/M24*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO24" s="80" t="e">
@@ -4731,23 +4731,23 @@
         <v/>
       </c>
       <c r="AT24" s="76" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU24" s="76" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV24" s="64" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU24" s="76" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV24" s="64" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW24" s="77" t="str">
-        <f t="shared" ref="AW24" si="19">IFERROR(-AS24+AV24, "n.a.")</f>
+        <f t="shared" ref="AW24" si="21">IFERROR(-AS24+AV24, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX24" s="133" t="str">
-        <f>IFERROR(BB24/M24*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY24" s="80" t="e">
@@ -8014,54 +8014,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="134" t="s">
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="134" t="s">
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="134" t="s">
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="138" t="s">
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="134" t="s">
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="134" t="s">
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="137" t="s">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="135"/>
+      <c r="AI2" s="136"/>
       <c r="AJ2" s="116"/>
     </row>
     <row r="3" spans="1:36" s="27" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">

--- a/TW/wc_template_TW_v3.xlsx
+++ b/TW/wc_template_TW_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\TW\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C98BC19-7D80-4E46-8DFD-C196051C06A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB2AE20-7A67-4592-A81A-6CDB56E6BC87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Monthly Inbounds (US$)</t>
+  </si>
+  <si>
+    <t>L90D</t>
   </si>
 </sst>
 </file>
@@ -1523,15 +1526,15 @@
       <c r="H4" s="81"/>
       <c r="I4" s="81"/>
       <c r="J4" s="68" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="68" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="68" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="68" t="e">
@@ -1678,15 +1681,15 @@
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
       <c r="J5" s="68" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="68" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="68" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="68" t="e">
@@ -1833,15 +1836,15 @@
       <c r="H6" s="81"/>
       <c r="I6" s="81"/>
       <c r="J6" s="68" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="68" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="68" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="68" t="e">
@@ -1988,15 +1991,15 @@
       <c r="H7" s="81"/>
       <c r="I7" s="81"/>
       <c r="J7" s="68" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="68" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="68" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="68" t="e">
@@ -2143,15 +2146,15 @@
       <c r="H8" s="81"/>
       <c r="I8" s="81"/>
       <c r="J8" s="68" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="68" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="68" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="68" t="e">
@@ -2298,15 +2301,15 @@
       <c r="H9" s="81"/>
       <c r="I9" s="81"/>
       <c r="J9" s="68" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="68" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="68" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="68" t="e">
@@ -2453,15 +2456,15 @@
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
       <c r="J10" s="68" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="68" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="68" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="68" t="e">
@@ -2608,15 +2611,15 @@
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
       <c r="J11" s="68" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="68" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="68" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="68" t="e">
@@ -2763,15 +2766,15 @@
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="68" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="68" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="68" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="68" t="e">
@@ -2918,15 +2921,15 @@
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="68" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="68" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="68" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="68" t="e">
@@ -3073,15 +3076,15 @@
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
       <c r="J14" s="68" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="68" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="68" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="68" t="e">
@@ -3228,15 +3231,15 @@
       <c r="H15" s="81"/>
       <c r="I15" s="81"/>
       <c r="J15" s="68" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="68" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="68" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="68" t="e">
@@ -3383,15 +3386,15 @@
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
       <c r="J16" s="68" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="68" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L16" s="68" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M16" s="68" t="e">
@@ -3538,15 +3541,15 @@
       <c r="H17" s="81"/>
       <c r="I17" s="81"/>
       <c r="J17" s="68" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="68" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L17" s="68" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M17" s="68" t="e">
@@ -3693,15 +3696,15 @@
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="68" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K18" s="68" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L18" s="68" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M18" s="68" t="e">
@@ -3848,15 +3851,15 @@
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
       <c r="J19" s="68" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K19" s="68" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L19" s="68" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M19" s="68" t="e">
@@ -4003,15 +4006,15 @@
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
       <c r="J20" s="68" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K20" s="68" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L20" s="68" t="e">
-        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B20,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M20" s="68" t="e">
@@ -4158,15 +4161,15 @@
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="68" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K21" s="68" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L21" s="68" t="e">
-        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B21,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M21" s="68" t="e">
@@ -4313,15 +4316,15 @@
       <c r="H22" s="81"/>
       <c r="I22" s="81"/>
       <c r="J22" s="68" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K22" s="68" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L22" s="68" t="e">
-        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B22,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M22" s="68" t="e">
@@ -4468,15 +4471,15 @@
       <c r="H23" s="81"/>
       <c r="I23" s="81"/>
       <c r="J23" s="68" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K23" s="68" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L23" s="68" t="e">
-        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B23,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M23" s="68" t="e">
@@ -4623,15 +4626,15 @@
       <c r="H24" s="81"/>
       <c r="I24" s="81"/>
       <c r="J24" s="80" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K24" s="80" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L24" s="80" t="e">
-        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B24,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M24" s="80" t="e">
@@ -8277,7 +8280,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="94" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F2" s="97" t="s">
         <v>52</v>
